--- a/Project_AI_cuoi_ky/Stats.xlsx
+++ b/Project_AI_cuoi_ky/Stats.xlsx
@@ -410,7 +410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,18 +454,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>((10, 7))</t>
+          <t>((12, 7))</t>
         </is>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7)</t>
+          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7) -&gt; (11, 7) -&gt; (12, 7)</t>
         </is>
       </c>
     </row>
@@ -475,18 +475,18 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>((4, 7))</t>
+          <t>((1, 1))</t>
         </is>
       </c>
       <c r="C4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>(10, 7) -&gt; (10, 8) -&gt; (9, 8) -&gt; (8, 8) -&gt; (7, 8) -&gt; (6, 8) -&gt; (5, 8) -&gt; (4, 8) -&gt; (4, 7)</t>
+          <t>(12, 7) -&gt; (12, 6) -&gt; (11, 6) -&gt; (10, 6) -&gt; (9, 6) -&gt; (8, 6) -&gt; (7, 6) -&gt; (6, 6) -&gt; (5, 6) -&gt; (4, 6) -&gt; (4, 5) -&gt; (4, 4) -&gt; (3, 4) -&gt; (2, 4) -&gt; (1, 4) -&gt; (1, 3) -&gt; (1, 2) -&gt; (1, 1)</t>
         </is>
       </c>
     </row>
@@ -496,18 +496,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>((16, 3))</t>
+          <t>((11, 3))</t>
         </is>
       </c>
       <c r="C5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>(4, 7) -&gt; (5, 7) -&gt; (6, 7) -&gt; (7, 7) -&gt; (8, 7) -&gt; (9, 7) -&gt; (10, 7) -&gt; (11, 7) -&gt; (12, 7) -&gt; (13, 7) -&gt; (14, 7) -&gt; (15, 7) -&gt; (16, 7) -&gt; (16, 6) -&gt; (16, 5) -&gt; (16, 4) -&gt; (16, 3)</t>
+          <t>(1, 1) -&gt; (2, 1) -&gt; (3, 1) -&gt; (4, 1) -&gt; (5, 1) -&gt; (6, 1) -&gt; (7, 1) -&gt; (8, 1) -&gt; (9, 1) -&gt; (10, 1) -&gt; (11, 1) -&gt; (11, 2) -&gt; (11, 3)</t>
         </is>
       </c>
     </row>
@@ -517,92 +517,29 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>((18, 11))</t>
+          <t>((22, 7))</t>
         </is>
       </c>
       <c r="C6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>(16, 3) -&gt; (17, 3) -&gt; (18, 3) -&gt; (18, 4) -&gt; (18, 5) -&gt; (18, 6) -&gt; (18, 7) -&gt; (18, 8) -&gt; (18, 9) -&gt; (18, 10) -&gt; (18, 11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>((12, 7))</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>126</v>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>(18, 11) -&gt; (17, 11) -&gt; (16, 11) -&gt; (15, 11) -&gt; (14, 11) -&gt; (13, 11) -&gt; (12, 11) -&gt; (12, 10) -&gt; (12, 9) -&gt; (12, 8) -&gt; (12, 7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>((22, 7))</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>284</v>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>(12, 7) -&gt; (13, 7) -&gt; (14, 7) -&gt; (15, 7) -&gt; (16, 7) -&gt; (17, 7) -&gt; (18, 7) -&gt; (19, 7) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (20, 10) -&gt; (21, 10) -&gt; (22, 10) -&gt; (22, 9) -&gt; (22, 8) -&gt; (22, 7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>((1, 13))</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>316</v>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>(22, 7) -&gt; (23, 7) -&gt; (23, 8) -&gt; (23, 9) -&gt; (23, 10) -&gt; (23, 11) -&gt; (22, 11) -&gt; (21, 11) -&gt; (20, 11) -&gt; (19, 11) -&gt; (18, 11) -&gt; (17, 11) -&gt; (16, 11) -&gt; (15, 11) -&gt; (14, 11) -&gt; (13, 11) -&gt; (12, 11) -&gt; (11, 11) -&gt; (10, 11) -&gt; (9, 11) -&gt; (8, 11) -&gt; (7, 11) -&gt; (6, 11) -&gt; (5, 11) -&gt; (4, 11) -&gt; (3, 11) -&gt; (2, 11) -&gt; (1, 11) -&gt; (1, 12) -&gt; (1, 13)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+          <t>(11, 3) -&gt; (12, 3) -&gt; (13, 3) -&gt; (14, 3) -&gt; (15, 3) -&gt; (16, 3) -&gt; (17, 3) -&gt; (18, 3) -&gt; (19, 3) -&gt; (20, 3) -&gt; (21, 3) -&gt; (22, 3) -&gt; (22, 4) -&gt; (22, 5) -&gt; (22, 6) -&gt; (22, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Average explored states:</t>
         </is>
       </c>
-      <c r="D12" s="3">
-        <f>SUM(D3:D8) / COUNTIF(C3:C8, True)</f>
+      <c r="D15" s="3">
+        <f>SUM(D3:D5) / COUNTIF(C3:C5, True)</f>
         <v/>
       </c>
     </row>
@@ -617,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,155 +598,29 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>((10, 7))</t>
+          <t>((12, 7))</t>
         </is>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>(8, 7) -&gt; (8, 6) -&gt; (8, 5) -&gt; (8, 4) -&gt; (8, 3) -&gt; (7, 3) -&gt; (6, 3) -&gt; (6, 4) -&gt; (6, 5) -&gt; (6, 6) -&gt; (6, 7) -&gt; (6, 8) -&gt; (6, 9) -&gt; (6, 10) -&gt; (6, 11) -&gt; (5, 11) -&gt; (4, 11) -&gt; (4, 10) -&gt; (4, 9) -&gt; (4, 8) -&gt; (4, 7) -&gt; (4, 6) -&gt; (4, 5) -&gt; (4, 4) -&gt; (4, 3) -&gt; (4, 2) -&gt; (4, 1) -&gt; (4, 0) -&gt; (3, 0) -&gt; (2, 0) -&gt; (2, 1) -&gt; (2, 2) -&gt; (2, 3) -&gt; (2, 4) -&gt; (2, 5) -&gt; (2, 6) -&gt; (2, 7) -&gt; (2, 8) -&gt; (2, 9) -&gt; (2, 10) -&gt; (2, 11) -&gt; (2, 12) -&gt; (2, 13) -&gt; (2, 14) -&gt; (3, 14) -&gt; (4, 14) -&gt; (4, 13) -&gt; (5, 13) -&gt; (6, 13) -&gt; (6, 14) -&gt; (7, 14) -&gt; (8, 14) -&gt; (8, 13) -&gt; (9, 13) -&gt; (10, 13) -&gt; (10, 12) -&gt; (10, 11) -&gt; (10, 10) -&gt; (10, 9) -&gt; (10, 8) -&gt; (10, 7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>((4, 7))</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>(10, 7) -&gt; (10, 6) -&gt; (10, 5) -&gt; (10, 4) -&gt; (10, 3) -&gt; (10, 2) -&gt; (10, 1) -&gt; (10, 0) -&gt; (9, 0) -&gt; (8, 0) -&gt; (8, 1) -&gt; (7, 1) -&gt; (6, 1) -&gt; (6, 0) -&gt; (5, 0) -&gt; (4, 0) -&gt; (4, 1) -&gt; (4, 2) -&gt; (4, 3) -&gt; (4, 4) -&gt; (4, 5) -&gt; (4, 6) -&gt; (4, 7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>((16, 3))</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>233</v>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>(4, 7) -&gt; (4, 8) -&gt; (4, 9) -&gt; (4, 10) -&gt; (4, 11) -&gt; (4, 12) -&gt; (4, 13) -&gt; (4, 14) -&gt; (3, 14) -&gt; (2, 14) -&gt; (2, 13) -&gt; (2, 12) -&gt; (2, 11) -&gt; (2, 10) -&gt; (2, 9) -&gt; (2, 8) -&gt; (2, 7) -&gt; (2, 6) -&gt; (2, 5) -&gt; (2, 4) -&gt; (2, 3) -&gt; (2, 2) -&gt; (2, 1) -&gt; (2, 0) -&gt; (3, 0) -&gt; (4, 0) -&gt; (4, 1) -&gt; (4, 2) -&gt; (4, 3) -&gt; (4, 4) -&gt; (5, 4) -&gt; (5, 5) -&gt; (5, 6) -&gt; (6, 6) -&gt; (6, 7) -&gt; (6, 8) -&gt; (6, 9) -&gt; (6, 10) -&gt; (6, 11) -&gt; (7, 11) -&gt; (8, 11) -&gt; (8, 10) -&gt; (8, 9) -&gt; (8, 8) -&gt; (8, 7) -&gt; (8, 6) -&gt; (8, 5) -&gt; (8, 4) -&gt; (8, 3) -&gt; (9, 3) -&gt; (10, 3) -&gt; (10, 2) -&gt; (10, 1) -&gt; (10, 0) -&gt; (11, 0) -&gt; (12, 0) -&gt; (12, 1) -&gt; (12, 2) -&gt; (12, 3) -&gt; (12, 4) -&gt; (12, 5) -&gt; (12, 6) -&gt; (12, 7) -&gt; (12, 8) -&gt; (12, 9) -&gt; (12, 10) -&gt; (12, 11) -&gt; (12, 12) -&gt; (12, 13) -&gt; (12, 14) -&gt; (13, 14) -&gt; (14, 14) -&gt; (14, 13) -&gt; (15, 13) -&gt; (16, 13) -&gt; (16, 14) -&gt; (17, 14) -&gt; (18, 14) -&gt; (18, 13) -&gt; (19, 13) -&gt; (19, 12) -&gt; (19, 11) -&gt; (19, 10) -&gt; (19, 9) -&gt; (19, 8) -&gt; (19, 7) -&gt; (19, 6) -&gt; (19, 5) -&gt; (19, 4) -&gt; (19, 3) -&gt; (18, 3) -&gt; (17, 3) -&gt; (16, 3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>((18, 11))</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>267</v>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>(16, 3) -&gt; (16, 4) -&gt; (16, 5) -&gt; (16, 6) -&gt; (16, 7) -&gt; (16, 8) -&gt; (16, 9) -&gt; (16, 10) -&gt; (16, 11) -&gt; (15, 11) -&gt; (14, 11) -&gt; (14, 10) -&gt; (14, 9) -&gt; (14, 8) -&gt; (14, 7) -&gt; (14, 6) -&gt; (14, 5) -&gt; (14, 4) -&gt; (14, 3) -&gt; (13, 3) -&gt; (13, 2) -&gt; (13, 1) -&gt; (13, 0) -&gt; (12, 0) -&gt; (11, 0) -&gt; (11, 1) -&gt; (11, 2) -&gt; (11, 3) -&gt; (11, 4) -&gt; (11, 5) -&gt; (11, 6) -&gt; (11, 7) -&gt; (11, 8) -&gt; (11, 9) -&gt; (11, 10) -&gt; (11, 11) -&gt; (11, 12) -&gt; (11, 13) -&gt; (11, 14) -&gt; (12, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (14, 13) -&gt; (15, 13) -&gt; (15, 14) -&gt; (16, 14) -&gt; (17, 14) -&gt; (17, 13) -&gt; (18, 13) -&gt; (19, 13) -&gt; (19, 12) -&gt; (19, 11) -&gt; (18, 11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>((12, 7))</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>279</v>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>(18, 11) -&gt; (18, 10) -&gt; (18, 9) -&gt; (18, 8) -&gt; (18, 7) -&gt; (18, 6) -&gt; (18, 5) -&gt; (18, 4) -&gt; (18, 3) -&gt; (17, 3) -&gt; (16, 3) -&gt; (16, 4) -&gt; (16, 5) -&gt; (16, 6) -&gt; (16, 7) -&gt; (16, 8) -&gt; (16, 9) -&gt; (16, 10) -&gt; (16, 11) -&gt; (15, 11) -&gt; (14, 11) -&gt; (14, 10) -&gt; (14, 9) -&gt; (14, 8) -&gt; (14, 7) -&gt; (14, 6) -&gt; (14, 5) -&gt; (14, 4) -&gt; (14, 3) -&gt; (13, 3) -&gt; (13, 2) -&gt; (13, 1) -&gt; (13, 0) -&gt; (12, 0) -&gt; (11, 0) -&gt; (11, 1) -&gt; (11, 2) -&gt; (11, 3) -&gt; (11, 4) -&gt; (11, 5) -&gt; (11, 6) -&gt; (11, 7) -&gt; (12, 7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>((22, 7))</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>255</v>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>(12, 7) -&gt; (12, 6) -&gt; (12, 5) -&gt; (12, 4) -&gt; (12, 3) -&gt; (12, 2) -&gt; (12, 1) -&gt; (12, 0) -&gt; (11, 0) -&gt; (10, 0) -&gt; (10, 1) -&gt; (10, 2) -&gt; (10, 3) -&gt; (10, 4) -&gt; (10, 5) -&gt; (10, 6) -&gt; (10, 7) -&gt; (10, 8) -&gt; (10, 9) -&gt; (10, 10) -&gt; (10, 11) -&gt; (10, 12) -&gt; (10, 13) -&gt; (10, 14) -&gt; (11, 14) -&gt; (12, 14) -&gt; (12, 13) -&gt; (12, 12) -&gt; (12, 11) -&gt; (12, 10) -&gt; (12, 9) -&gt; (13, 9) -&gt; (13, 8) -&gt; (14, 8) -&gt; (14, 7) -&gt; (14, 6) -&gt; (14, 5) -&gt; (14, 4) -&gt; (14, 3) -&gt; (15, 3) -&gt; (16, 3) -&gt; (16, 4) -&gt; (16, 5) -&gt; (16, 6) -&gt; (16, 7) -&gt; (16, 8) -&gt; (16, 9) -&gt; (16, 10) -&gt; (16, 11) -&gt; (17, 11) -&gt; (18, 11) -&gt; (18, 10) -&gt; (18, 9) -&gt; (18, 8) -&gt; (18, 7) -&gt; (18, 6) -&gt; (18, 5) -&gt; (18, 4) -&gt; (18, 3) -&gt; (19, 3) -&gt; (19, 2) -&gt; (19, 1) -&gt; (19, 0) -&gt; (20, 0) -&gt; (21, 0) -&gt; (21, 1) -&gt; (21, 2) -&gt; (21, 3) -&gt; (21, 4) -&gt; (21, 5) -&gt; (21, 6) -&gt; (21, 7) -&gt; (22, 7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>((1, 13))</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>(22, 7) -&gt; (22, 6) -&gt; (22, 5) -&gt; (22, 4) -&gt; (22, 3) -&gt; (22, 2) -&gt; (22, 1) -&gt; (22, 0) -&gt; (21, 0) -&gt; (20, 0) -&gt; (20, 1) -&gt; (20, 2) -&gt; (20, 3) -&gt; (20, 4) -&gt; (19, 4) -&gt; (19, 5) -&gt; (19, 6) -&gt; (19, 7) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (19, 11) -&gt; (19, 12) -&gt; (19, 13) -&gt; (19, 14) -&gt; (18, 14) -&gt; (17, 14) -&gt; (17, 13) -&gt; (16, 13) -&gt; (15, 13) -&gt; (15, 14) -&gt; (14, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (13, 12) -&gt; (13, 11) -&gt; (13, 10) -&gt; (13, 9) -&gt; (13, 8) -&gt; (13, 7) -&gt; (13, 6) -&gt; (13, 5) -&gt; (13, 4) -&gt; (13, 3) -&gt; (13, 2) -&gt; (13, 1) -&gt; (13, 0) -&gt; (12, 0) -&gt; (11, 0) -&gt; (11, 1) -&gt; (11, 2) -&gt; (11, 3) -&gt; (11, 4) -&gt; (11, 5) -&gt; (11, 6) -&gt; (11, 7) -&gt; (11, 8) -&gt; (11, 9) -&gt; (11, 10) -&gt; (11, 11) -&gt; (11, 12) -&gt; (11, 13) -&gt; (11, 14) -&gt; (10, 14) -&gt; (9, 14) -&gt; (9, 13) -&gt; (8, 13) -&gt; (7, 13) -&gt; (7, 14) -&gt; (6, 14) -&gt; (5, 14) -&gt; (5, 13) -&gt; (4, 13) -&gt; (4, 12) -&gt; (4, 11) -&gt; (4, 10) -&gt; (4, 9) -&gt; (4, 8) -&gt; (4, 7) -&gt; (4, 6) -&gt; (4, 5) -&gt; (4, 4) -&gt; (4, 3) -&gt; (4, 2) -&gt; (4, 1) -&gt; (4, 0) -&gt; (3, 0) -&gt; (2, 0) -&gt; (2, 1) -&gt; (2, 2) -&gt; (2, 3) -&gt; (2, 4) -&gt; (2, 5) -&gt; (2, 6) -&gt; (2, 7) -&gt; (2, 8) -&gt; (2, 9) -&gt; (2, 10) -&gt; (2, 11) -&gt; (2, 12) -&gt; (2, 13) -&gt; (1, 13)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+          <t>(8, 7) -&gt; (8, 6) -&gt; (8, 5) -&gt; (8, 4) -&gt; (8, 3) -&gt; (7, 3) -&gt; (6, 3) -&gt; (6, 4) -&gt; (6, 5) -&gt; (6, 6) -&gt; (6, 7) -&gt; (6, 8) -&gt; (6, 9) -&gt; (6, 10) -&gt; (6, 11) -&gt; (5, 11) -&gt; (4, 11) -&gt; (4, 10) -&gt; (4, 9) -&gt; (4, 8) -&gt; (4, 7) -&gt; (4, 6) -&gt; (4, 5) -&gt; (4, 4) -&gt; (4, 3) -&gt; (4, 2) -&gt; (4, 1) -&gt; (4, 0) -&gt; (3, 0) -&gt; (2, 0) -&gt; (2, 1) -&gt; (2, 2) -&gt; (2, 3) -&gt; (2, 4) -&gt; (2, 5) -&gt; (2, 6) -&gt; (2, 7) -&gt; (2, 8) -&gt; (2, 9) -&gt; (2, 10) -&gt; (2, 11) -&gt; (2, 12) -&gt; (2, 13) -&gt; (2, 14) -&gt; (3, 14) -&gt; (4, 14) -&gt; (4, 13) -&gt; (5, 13) -&gt; (6, 13) -&gt; (6, 14) -&gt; (7, 14) -&gt; (8, 14) -&gt; (8, 13) -&gt; (9, 13) -&gt; (10, 13) -&gt; (10, 12) -&gt; (10, 11) -&gt; (10, 10) -&gt; (10, 9) -&gt; (10, 8) -&gt; (10, 7) -&gt; (10, 6) -&gt; (10, 5) -&gt; (10, 4) -&gt; (10, 3) -&gt; (10, 2) -&gt; (10, 1) -&gt; (10, 0) -&gt; (11, 0) -&gt; (12, 0) -&gt; (12, 1) -&gt; (12, 2) -&gt; (12, 3) -&gt; (12, 4) -&gt; (12, 5) -&gt; (12, 6) -&gt; (12, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Average explored states:</t>
         </is>
       </c>
-      <c r="D12" s="3">
-        <f>SUM(D3:D8) / COUNTIF(C3:C8, True)</f>
+      <c r="D15" s="3">
+        <f>SUM(D3:D2) / COUNTIF(C3:C2, True)</f>
         <v/>
       </c>
     </row>
@@ -824,7 +635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,18 +679,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>((10, 7))</t>
+          <t>((12, 7))</t>
         </is>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7)</t>
+          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7) -&gt; (11, 7) -&gt; (12, 7)</t>
         </is>
       </c>
     </row>
@@ -889,18 +700,18 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>((4, 7))</t>
+          <t>((1, 1))</t>
         </is>
       </c>
       <c r="C4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>(10, 7) -&gt; (10, 6) -&gt; (10, 5) -&gt; (10, 4) -&gt; (9, 4) -&gt; (8, 4) -&gt; (7, 4) -&gt; (6, 4) -&gt; (5, 4) -&gt; (5, 5) -&gt; (5, 6) -&gt; (5, 7) -&gt; (4, 7)</t>
+          <t>(12, 7) -&gt; (12, 6) -&gt; (12, 5) -&gt; (12, 4) -&gt; (11, 4) -&gt; (10, 4) -&gt; (9, 4) -&gt; (8, 4) -&gt; (7, 4) -&gt; (6, 4) -&gt; (5, 4) -&gt; (4, 4) -&gt; (4, 3) -&gt; (3, 3) -&gt; (2, 3) -&gt; (1, 3) -&gt; (1, 2) -&gt; (1, 1)</t>
         </is>
       </c>
     </row>
@@ -910,18 +721,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>((16, 3))</t>
+          <t>((11, 3))</t>
         </is>
       </c>
       <c r="C5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>(4, 7) -&gt; (4, 8) -&gt; (5, 8) -&gt; (5, 9) -&gt; (5, 10) -&gt; (4, 10) -&gt; (4, 11) -&gt; (3, 11) -&gt; (2, 11) -&gt; (1, 11) -&gt; (1, 10) -&gt; (1, 9) -&gt; (1, 8) -&gt; (1, 7) -&gt; (1, 6) -&gt; (1, 5) -&gt; (1, 4) -&gt; (1, 3) -&gt; (2, 3) -&gt; (3, 3) -&gt; (4, 3) -&gt; (4, 4) -&gt; (5, 4) -&gt; (6, 4) -&gt; (7, 4) -&gt; (8, 4) -&gt; (9, 4) -&gt; (10, 4) -&gt; (11, 4) -&gt; (12, 4) -&gt; (13, 4) -&gt; (14, 4) -&gt; (15, 4) -&gt; (16, 4) -&gt; (16, 3)</t>
+          <t>(1, 1) -&gt; (2, 1) -&gt; (2, 2) -&gt; (2, 3) -&gt; (3, 3) -&gt; (4, 3) -&gt; (4, 4) -&gt; (5, 4) -&gt; (6, 4) -&gt; (7, 4) -&gt; (8, 4) -&gt; (9, 4) -&gt; (10, 4) -&gt; (10, 3) -&gt; (11, 3)</t>
         </is>
       </c>
     </row>
@@ -931,18 +742,18 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>((18, 11))</t>
+          <t>((22, 7))</t>
         </is>
       </c>
       <c r="C6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>(16, 3) -&gt; (17, 3) -&gt; (17, 4) -&gt; (17, 5) -&gt; (16, 5) -&gt; (16, 6) -&gt; (16, 7) -&gt; (16, 8) -&gt; (16, 9) -&gt; (16, 10) -&gt; (17, 10) -&gt; (18, 10) -&gt; (18, 11)</t>
+          <t>(11, 3) -&gt; (11, 4) -&gt; (12, 4) -&gt; (13, 4) -&gt; (14, 4) -&gt; (15, 4) -&gt; (16, 4) -&gt; (17, 4) -&gt; (18, 4) -&gt; (19, 4) -&gt; (19, 3) -&gt; (20, 3) -&gt; (21, 3) -&gt; (21, 4) -&gt; (22, 4) -&gt; (22, 5) -&gt; (22, 6) -&gt; (22, 7)</t>
         </is>
       </c>
     </row>
@@ -952,18 +763,18 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>((12, 7))</t>
+          <t>((4, 13))</t>
         </is>
       </c>
       <c r="C7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>264</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>(18, 11) -&gt; (19, 11) -&gt; (20, 11) -&gt; (21, 11) -&gt; (21, 10) -&gt; (22, 10) -&gt; (22, 9) -&gt; (22, 8) -&gt; (22, 7) -&gt; (22, 6) -&gt; (22, 5) -&gt; (22, 4) -&gt; (21, 4) -&gt; (21, 3) -&gt; (20, 3) -&gt; (19, 3) -&gt; (19, 4) -&gt; (18, 4) -&gt; (17, 4) -&gt; (16, 4) -&gt; (15, 4) -&gt; (14, 4) -&gt; (13, 4) -&gt; (12, 4) -&gt; (12, 5) -&gt; (12, 6) -&gt; (12, 7)</t>
+          <t>(22, 7) -&gt; (22, 8) -&gt; (22, 9) -&gt; (22, 10) -&gt; (21, 10) -&gt; (21, 11) -&gt; (20, 11) -&gt; (19, 11) -&gt; (19, 10) -&gt; (18, 10) -&gt; (17, 10) -&gt; (16, 10) -&gt; (15, 10) -&gt; (14, 10) -&gt; (13, 10) -&gt; (12, 10) -&gt; (11, 10) -&gt; (10, 10) -&gt; (9, 10) -&gt; (8, 10) -&gt; (7, 10) -&gt; (6, 10) -&gt; (5, 10) -&gt; (4, 10) -&gt; (4, 11) -&gt; (3, 11) -&gt; (2, 11) -&gt; (1, 11) -&gt; (1, 12) -&gt; (1, 13) -&gt; (2, 13) -&gt; (3, 13) -&gt; (4, 13)</t>
         </is>
       </c>
     </row>
@@ -973,18 +784,18 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>((22, 7))</t>
+          <t>((19, 1))</t>
         </is>
       </c>
       <c r="C8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>(12, 7) -&gt; (12, 8) -&gt; (12, 9) -&gt; (12, 10) -&gt; (13, 10) -&gt; (14, 10) -&gt; (15, 10) -&gt; (16, 10) -&gt; (16, 9) -&gt; (16, 8) -&gt; (16, 7) -&gt; (16, 6) -&gt; (16, 5) -&gt; (16, 4) -&gt; (17, 4) -&gt; (18, 4) -&gt; (19, 4) -&gt; (19, 3) -&gt; (20, 3) -&gt; (21, 3) -&gt; (21, 4) -&gt; (22, 4) -&gt; (22, 5) -&gt; (22, 6) -&gt; (22, 7)</t>
+          <t>(4, 13) -&gt; (4, 12) -&gt; (3, 12) -&gt; (2, 12) -&gt; (2, 11) -&gt; (2, 10) -&gt; (1, 10) -&gt; (1, 9) -&gt; (1, 8) -&gt; (1, 7) -&gt; (1, 6) -&gt; (1, 5) -&gt; (1, 4) -&gt; (1, 3) -&gt; (2, 3) -&gt; (3, 3) -&gt; (4, 3) -&gt; (4, 4) -&gt; (5, 4) -&gt; (6, 4) -&gt; (7, 4) -&gt; (8, 4) -&gt; (9, 4) -&gt; (10, 4) -&gt; (11, 4) -&gt; (12, 4) -&gt; (13, 4) -&gt; (14, 4) -&gt; (15, 4) -&gt; (16, 4) -&gt; (17, 4) -&gt; (18, 4) -&gt; (19, 4) -&gt; (19, 3) -&gt; (20, 3) -&gt; (20, 2) -&gt; (20, 1) -&gt; (19, 1)</t>
         </is>
       </c>
     </row>
@@ -994,29 +805,92 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>((1, 13))</t>
+          <t>((5, 5))</t>
         </is>
       </c>
       <c r="C9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>(22, 7) -&gt; (22, 8) -&gt; (22, 9) -&gt; (22, 10) -&gt; (21, 10) -&gt; (21, 11) -&gt; (20, 11) -&gt; (19, 11) -&gt; (19, 10) -&gt; (18, 10) -&gt; (17, 10) -&gt; (16, 10) -&gt; (15, 10) -&gt; (14, 10) -&gt; (13, 10) -&gt; (12, 10) -&gt; (11, 10) -&gt; (10, 10) -&gt; (9, 10) -&gt; (8, 10) -&gt; (7, 10) -&gt; (6, 10) -&gt; (5, 10) -&gt; (4, 10) -&gt; (4, 11) -&gt; (3, 11) -&gt; (2, 11) -&gt; (1, 11) -&gt; (1, 12) -&gt; (1, 13)</t>
+          <t>(19, 1) -&gt; (19, 0) -&gt; (20, 0) -&gt; (21, 0) -&gt; (21, 1) -&gt; (21, 2) -&gt; (21, 3) -&gt; (21, 4) -&gt; (22, 4) -&gt; (22, 5) -&gt; (22, 6) -&gt; (22, 7) -&gt; (22, 8) -&gt; (22, 9) -&gt; (22, 10) -&gt; (21, 10) -&gt; (21, 11) -&gt; (20, 11) -&gt; (19, 11) -&gt; (19, 10) -&gt; (18, 10) -&gt; (17, 10) -&gt; (16, 10) -&gt; (15, 10) -&gt; (14, 10) -&gt; (13, 10) -&gt; (12, 10) -&gt; (11, 10) -&gt; (10, 10) -&gt; (9, 10) -&gt; (8, 10) -&gt; (7, 10) -&gt; (6, 10) -&gt; (5, 10) -&gt; (4, 10) -&gt; (4, 11) -&gt; (3, 11) -&gt; (2, 11) -&gt; (1, 11) -&gt; (1, 10) -&gt; (1, 9) -&gt; (1, 8) -&gt; (1, 7) -&gt; (1, 6) -&gt; (1, 5) -&gt; (1, 4) -&gt; (1, 3) -&gt; (2, 3) -&gt; (3, 3) -&gt; (4, 3) -&gt; (4, 4) -&gt; (5, 4) -&gt; (5, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>((12, 14))</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>(5, 5) -&gt; (5, 6) -&gt; (5, 7) -&gt; (5, 8) -&gt; (5, 9) -&gt; (5, 10) -&gt; (6, 10) -&gt; (7, 10) -&gt; (8, 10) -&gt; (9, 10) -&gt; (10, 10) -&gt; (10, 11) -&gt; (11, 11) -&gt; (11, 12) -&gt; (11, 13) -&gt; (12, 13) -&gt; (12, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>((14, 8))</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>207</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>(12, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (13, 12) -&gt; (12, 12) -&gt; (12, 11) -&gt; (12, 10) -&gt; (13, 10) -&gt; (14, 10) -&gt; (14, 9) -&gt; (14, 8)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>((22, 13))</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>(14, 8) -&gt; (15, 8) -&gt; (16, 8) -&gt; (16, 9) -&gt; (16, 10) -&gt; (17, 10) -&gt; (18, 10) -&gt; (19, 10) -&gt; (19, 11) -&gt; (20, 11) -&gt; (20, 12) -&gt; (20, 13) -&gt; (21, 13) -&gt; (22, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Average explored states:</t>
         </is>
       </c>
-      <c r="D12" s="3">
-        <f>AVERAGE(D3:D8)</f>
+      <c r="D15" s="3">
+        <f>SUM(D3:D11) / COUNTIF(C3:C11, True)</f>
         <v/>
       </c>
     </row>
@@ -1031,7 +905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,18 +949,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>((10, 7))</t>
+          <t>((12, 7))</t>
         </is>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7)</t>
+          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7) -&gt; (11, 7) -&gt; (12, 7)</t>
         </is>
       </c>
     </row>
@@ -1096,18 +970,18 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>((4, 7))</t>
+          <t>((1, 1))</t>
         </is>
       </c>
       <c r="C4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>(10, 7) -&gt; (10, 6) -&gt; (9, 6) -&gt; (8, 6) -&gt; (7, 6) -&gt; (6, 6) -&gt; (6, 7) -&gt; (5, 7) -&gt; (4, 7)</t>
+          <t>(12, 7) -&gt; (12, 6) -&gt; (11, 6) -&gt; (10, 6) -&gt; (9, 6) -&gt; (8, 6) -&gt; (7, 6) -&gt; (7, 5) -&gt; (6, 5) -&gt; (5, 5) -&gt; (5, 4) -&gt; (4, 4) -&gt; (3, 4) -&gt; (3, 3) -&gt; (2, 3) -&gt; (2, 2) -&gt; (1, 2) -&gt; (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1117,18 +991,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>((16, 3))</t>
+          <t>((11, 3))</t>
         </is>
       </c>
       <c r="C5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>(4, 7) -&gt; (4, 6) -&gt; (4, 5) -&gt; (5, 5) -&gt; (6, 5) -&gt; (7, 5) -&gt; (8, 5) -&gt; (9, 5) -&gt; (10, 5) -&gt; (11, 5) -&gt; (12, 5) -&gt; (13, 5) -&gt; (14, 5) -&gt; (15, 5) -&gt; (16, 5) -&gt; (16, 4) -&gt; (16, 3)</t>
+          <t>(1, 1) -&gt; (2, 1) -&gt; (3, 1) -&gt; (3, 2) -&gt; (3, 3) -&gt; (4, 3) -&gt; (5, 3) -&gt; (6, 3) -&gt; (7, 3) -&gt; (8, 3) -&gt; (9, 3) -&gt; (10, 3) -&gt; (11, 3)</t>
         </is>
       </c>
     </row>
@@ -1138,18 +1012,18 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>((18, 11))</t>
+          <t>((22, 7))</t>
         </is>
       </c>
       <c r="C6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>(16, 3) -&gt; (17, 3) -&gt; (17, 4) -&gt; (17, 5) -&gt; (17, 6) -&gt; (17, 7) -&gt; (17, 8) -&gt; (17, 9) -&gt; (18, 9) -&gt; (18, 10) -&gt; (18, 11)</t>
+          <t>(11, 3) -&gt; (11, 4) -&gt; (12, 4) -&gt; (13, 4) -&gt; (14, 4) -&gt; (15, 4) -&gt; (16, 4) -&gt; (17, 4) -&gt; (18, 4) -&gt; (19, 4) -&gt; (20, 4) -&gt; (21, 4) -&gt; (21, 5) -&gt; (21, 6) -&gt; (21, 7) -&gt; (22, 7)</t>
         </is>
       </c>
     </row>
@@ -1159,18 +1033,18 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>((12, 7))</t>
+          <t>((4, 13))</t>
         </is>
       </c>
       <c r="C7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>(18, 11) -&gt; (17, 11) -&gt; (16, 11) -&gt; (16, 10) -&gt; (16, 9) -&gt; (16, 8) -&gt; (16, 7) -&gt; (15, 7) -&gt; (14, 7) -&gt; (13, 7) -&gt; (12, 7)</t>
+          <t>(22, 7) -&gt; (22, 8) -&gt; (21, 8) -&gt; (21, 9) -&gt; (21, 10) -&gt; (20, 10) -&gt; (19, 10) -&gt; (18, 10) -&gt; (17, 10) -&gt; (16, 10) -&gt; (15, 10) -&gt; (14, 10) -&gt; (13, 10) -&gt; (12, 10) -&gt; (11, 10) -&gt; (10, 10) -&gt; (9, 10) -&gt; (8, 10) -&gt; (7, 10) -&gt; (6, 10) -&gt; (5, 10) -&gt; (4, 10) -&gt; (4, 11) -&gt; (4, 12) -&gt; (4, 13)</t>
         </is>
       </c>
     </row>
@@ -1180,18 +1054,18 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>((22, 7))</t>
+          <t>((19, 1))</t>
         </is>
       </c>
       <c r="C8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>(12, 7) -&gt; (12, 6) -&gt; (13, 6) -&gt; (14, 6) -&gt; (15, 6) -&gt; (16, 6) -&gt; (17, 6) -&gt; (17, 5) -&gt; (18, 5) -&gt; (18, 4) -&gt; (19, 4) -&gt; (20, 4) -&gt; (21, 4) -&gt; (21, 5) -&gt; (21, 6) -&gt; (21, 7) -&gt; (22, 7)</t>
+          <t>(4, 13) -&gt; (5, 13) -&gt; (6, 13) -&gt; (7, 13) -&gt; (8, 13) -&gt; (9, 13) -&gt; (10, 13) -&gt; (10, 12) -&gt; (10, 11) -&gt; (10, 10) -&gt; (10, 9) -&gt; (10, 8) -&gt; (10, 7) -&gt; (10, 6) -&gt; (11, 6) -&gt; (12, 6) -&gt; (13, 6) -&gt; (14, 6) -&gt; (15, 6) -&gt; (16, 6) -&gt; (16, 5) -&gt; (17, 5) -&gt; (18, 5) -&gt; (18, 4) -&gt; (19, 4) -&gt; (19, 3) -&gt; (19, 2) -&gt; (19, 1)</t>
         </is>
       </c>
     </row>
@@ -1201,29 +1075,92 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>((1, 13))</t>
+          <t>((5, 5))</t>
         </is>
       </c>
       <c r="C9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>(22, 7) -&gt; (22, 8) -&gt; (21, 8) -&gt; (21, 9) -&gt; (21, 10) -&gt; (20, 10) -&gt; (19, 10) -&gt; (19, 11) -&gt; (19, 12) -&gt; (19, 13) -&gt; (18, 13) -&gt; (17, 13) -&gt; (16, 13) -&gt; (15, 13) -&gt; (14, 13) -&gt; (13, 13) -&gt; (12, 13) -&gt; (11, 13) -&gt; (10, 13) -&gt; (9, 13) -&gt; (8, 13) -&gt; (7, 13) -&gt; (6, 13) -&gt; (5, 13) -&gt; (4, 13) -&gt; (3, 13) -&gt; (2, 13) -&gt; (1, 13)</t>
+          <t>(19, 1) -&gt; (18, 1) -&gt; (17, 1) -&gt; (16, 1) -&gt; (15, 1) -&gt; (14, 1) -&gt; (13, 1) -&gt; (13, 2) -&gt; (13, 3) -&gt; (13, 4) -&gt; (13, 5) -&gt; (12, 5) -&gt; (11, 5) -&gt; (10, 5) -&gt; (9, 5) -&gt; (8, 5) -&gt; (7, 5) -&gt; (6, 5) -&gt; (5, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>((12, 14))</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>(5, 5) -&gt; (5, 6) -&gt; (5, 7) -&gt; (5, 8) -&gt; (6, 8) -&gt; (7, 8) -&gt; (8, 8) -&gt; (9, 8) -&gt; (10, 8) -&gt; (11, 8) -&gt; (12, 8) -&gt; (12, 9) -&gt; (12, 10) -&gt; (12, 11) -&gt; (12, 12) -&gt; (12, 13) -&gt; (12, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>((14, 8))</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>(12, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (13, 12) -&gt; (13, 11) -&gt; (13, 10) -&gt; (13, 9) -&gt; (13, 8) -&gt; (14, 8)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>((22, 13))</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>(14, 8) -&gt; (15, 8) -&gt; (16, 8) -&gt; (17, 8) -&gt; (18, 8) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (20, 10) -&gt; (21, 10) -&gt; (22, 10) -&gt; (22, 11) -&gt; (22, 12) -&gt; (22, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Average explored states:</t>
         </is>
       </c>
-      <c r="D12" s="3">
-        <f>AVERAGE(D3:D8)</f>
+      <c r="D15" s="3">
+        <f>SUM(D3:D11) / COUNTIF(C3:C11, True)</f>
         <v/>
       </c>
     </row>
@@ -1238,7 +1175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1282,18 +1219,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>((10, 7))</t>
+          <t>((12, 7))</t>
         </is>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7)</t>
+          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7) -&gt; (11, 7) -&gt; (12, 7)</t>
         </is>
       </c>
     </row>
@@ -1303,18 +1240,18 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>((4, 7))</t>
+          <t>((1, 1))</t>
         </is>
       </c>
       <c r="C4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>(10, 7) -&gt; (10, 6) -&gt; (9, 6) -&gt; (8, 6) -&gt; (7, 6) -&gt; (6, 6) -&gt; (6, 7) -&gt; (5, 7) -&gt; (4, 7)</t>
+          <t>(12, 7) -&gt; (12, 6) -&gt; (11, 6) -&gt; (10, 6) -&gt; (9, 6) -&gt; (8, 6) -&gt; (7, 6) -&gt; (7, 5) -&gt; (6, 5) -&gt; (5, 5) -&gt; (5, 4) -&gt; (4, 4) -&gt; (3, 4) -&gt; (3, 3) -&gt; (2, 3) -&gt; (2, 2) -&gt; (1, 2) -&gt; (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1324,18 +1261,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>((16, 3))</t>
+          <t>((11, 3))</t>
         </is>
       </c>
       <c r="C5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>(4, 7) -&gt; (4, 6) -&gt; (5, 6) -&gt; (6, 6) -&gt; (7, 6) -&gt; (8, 6) -&gt; (9, 6) -&gt; (10, 6) -&gt; (11, 6) -&gt; (12, 6) -&gt; (13, 6) -&gt; (14, 6) -&gt; (15, 6) -&gt; (16, 6) -&gt; (16, 5) -&gt; (16, 4) -&gt; (16, 3)</t>
+          <t>(1, 1) -&gt; (2, 1) -&gt; (3, 1) -&gt; (3, 2) -&gt; (3, 3) -&gt; (4, 3) -&gt; (5, 3) -&gt; (6, 3) -&gt; (7, 3) -&gt; (8, 3) -&gt; (9, 3) -&gt; (10, 3) -&gt; (11, 3)</t>
         </is>
       </c>
     </row>
@@ -1345,18 +1282,18 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>((18, 11))</t>
+          <t>((22, 7))</t>
         </is>
       </c>
       <c r="C6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>(16, 3) -&gt; (17, 3) -&gt; (17, 4) -&gt; (17, 5) -&gt; (17, 6) -&gt; (17, 7) -&gt; (17, 8) -&gt; (17, 9) -&gt; (18, 9) -&gt; (18, 10) -&gt; (18, 11)</t>
+          <t>(11, 3) -&gt; (11, 4) -&gt; (12, 4) -&gt; (13, 4) -&gt; (14, 4) -&gt; (15, 4) -&gt; (16, 4) -&gt; (17, 4) -&gt; (18, 4) -&gt; (19, 4) -&gt; (20, 4) -&gt; (21, 4) -&gt; (21, 5) -&gt; (21, 6) -&gt; (21, 7) -&gt; (22, 7)</t>
         </is>
       </c>
     </row>
@@ -1366,18 +1303,18 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>((12, 7))</t>
+          <t>((4, 13))</t>
         </is>
       </c>
       <c r="C7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>(18, 11) -&gt; (17, 11) -&gt; (16, 11) -&gt; (16, 10) -&gt; (16, 9) -&gt; (16, 8) -&gt; (16, 7) -&gt; (15, 7) -&gt; (14, 7) -&gt; (13, 7) -&gt; (12, 7)</t>
+          <t>(22, 7) -&gt; (22, 8) -&gt; (21, 8) -&gt; (21, 9) -&gt; (21, 10) -&gt; (20, 10) -&gt; (19, 10) -&gt; (18, 10) -&gt; (17, 10) -&gt; (16, 10) -&gt; (15, 10) -&gt; (14, 10) -&gt; (13, 10) -&gt; (12, 10) -&gt; (11, 10) -&gt; (10, 10) -&gt; (9, 10) -&gt; (8, 10) -&gt; (7, 10) -&gt; (6, 10) -&gt; (5, 10) -&gt; (4, 10) -&gt; (4, 11) -&gt; (4, 12) -&gt; (4, 13)</t>
         </is>
       </c>
     </row>
@@ -1387,18 +1324,18 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>((22, 7))</t>
+          <t>((19, 1))</t>
         </is>
       </c>
       <c r="C8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>(12, 7) -&gt; (12, 8) -&gt; (13, 8) -&gt; (14, 8) -&gt; (15, 8) -&gt; (15, 9) -&gt; (15, 10) -&gt; (14, 10) -&gt; (13, 10) -&gt; (13, 11) -&gt; (13, 12) -&gt; (13, 13) -&gt; (14, 13) -&gt; (15, 13) -&gt; (16, 13) -&gt; (17, 13) -&gt; (18, 13) -&gt; (19, 13) -&gt; (19, 12) -&gt; (19, 11) -&gt; (19, 10) -&gt; (20, 10) -&gt; (21, 10) -&gt; (21, 9) -&gt; (21, 8) -&gt; (21, 7) -&gt; (22, 7)</t>
+          <t>(4, 13) -&gt; (5, 13) -&gt; (6, 13) -&gt; (7, 13) -&gt; (8, 13) -&gt; (9, 13) -&gt; (10, 13) -&gt; (10, 12) -&gt; (10, 11) -&gt; (10, 10) -&gt; (10, 9) -&gt; (10, 8) -&gt; (11, 8) -&gt; (12, 8) -&gt; (13, 8) -&gt; (13, 7) -&gt; (14, 7) -&gt; (14, 6) -&gt; (15, 6) -&gt; (16, 6) -&gt; (16, 5) -&gt; (17, 5) -&gt; (18, 5) -&gt; (18, 4) -&gt; (19, 4) -&gt; (19, 3) -&gt; (19, 2) -&gt; (19, 1)</t>
         </is>
       </c>
     </row>
@@ -1408,29 +1345,92 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>((1, 13))</t>
+          <t>((5, 5))</t>
         </is>
       </c>
       <c r="C9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>(22, 7) -&gt; (22, 8) -&gt; (22, 9) -&gt; (22, 10) -&gt; (22, 11) -&gt; (21, 11) -&gt; (20, 11) -&gt; (19, 11) -&gt; (19, 12) -&gt; (19, 13) -&gt; (18, 13) -&gt; (17, 13) -&gt; (16, 13) -&gt; (15, 13) -&gt; (14, 13) -&gt; (13, 13) -&gt; (12, 13) -&gt; (11, 13) -&gt; (10, 13) -&gt; (9, 13) -&gt; (8, 13) -&gt; (7, 13) -&gt; (6, 13) -&gt; (5, 13) -&gt; (4, 13) -&gt; (3, 13) -&gt; (2, 13) -&gt; (1, 13)</t>
+          <t>(19, 1) -&gt; (18, 1) -&gt; (17, 1) -&gt; (16, 1) -&gt; (15, 1) -&gt; (14, 1) -&gt; (13, 1) -&gt; (13, 2) -&gt; (13, 3) -&gt; (13, 4) -&gt; (13, 5) -&gt; (12, 5) -&gt; (11, 5) -&gt; (10, 5) -&gt; (9, 5) -&gt; (8, 5) -&gt; (7, 5) -&gt; (6, 5) -&gt; (5, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>((12, 14))</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>(5, 5) -&gt; (5, 6) -&gt; (6, 6) -&gt; (7, 6) -&gt; (8, 6) -&gt; (9, 6) -&gt; (10, 6) -&gt; (10, 7) -&gt; (10, 8) -&gt; (11, 8) -&gt; (12, 8) -&gt; (12, 9) -&gt; (12, 10) -&gt; (12, 11) -&gt; (12, 12) -&gt; (12, 13) -&gt; (12, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>((14, 8))</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>(12, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (13, 12) -&gt; (13, 11) -&gt; (13, 10) -&gt; (13, 9) -&gt; (13, 8) -&gt; (14, 8)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>((22, 13))</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>(14, 8) -&gt; (15, 8) -&gt; (16, 8) -&gt; (17, 8) -&gt; (18, 8) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (20, 10) -&gt; (21, 10) -&gt; (22, 10) -&gt; (22, 11) -&gt; (22, 12) -&gt; (22, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Average explored states:</t>
         </is>
       </c>
-      <c r="D12" s="3">
-        <f>SUM(D3:D8) / COUNTIF(C3:C8, True)</f>
+      <c r="D15" s="3">
+        <f>SUM(D3:D11) / COUNTIF(C3:C11, True)</f>
         <v/>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>((10, 7))</t>
+          <t>((12, 7))</t>
         </is>
       </c>
       <c r="C3" s="4" t="b">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7)</t>
+          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7) -&gt; (11, 7) -&gt; (12, 7)</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>((4, 7))</t>
+          <t>((1, 1))</t>
         </is>
       </c>
       <c r="C4" s="4" t="b">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>(10, 7) -&gt; (10, 8) -&gt; (9, 8) -&gt; (8, 8) -&gt; (7, 8) -&gt; (6, 8) -&gt; (5, 8) -&gt; (4, 8) -&gt; (4, 7)</t>
+          <t>(12, 7) -&gt; (12, 6) -&gt; (11, 6) -&gt; (10, 6) -&gt; (9, 6) -&gt; (8, 6) -&gt; (7, 6) -&gt; (6, 6) -&gt; (5, 6) -&gt; (4, 6) -&gt; (4, 5) -&gt; (4, 4) -&gt; (3, 4) -&gt; (2, 4) -&gt; (1, 4) -&gt; (1, 3) -&gt; (1, 2) -&gt; (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>((16, 3))</t>
+          <t>((11, 3))</t>
         </is>
       </c>
       <c r="C5" s="4" t="b">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>(4, 7) -&gt; (5, 7) -&gt; (6, 7) -&gt; (7, 7) -&gt; (8, 7) -&gt; (9, 7) -&gt; (10, 7) -&gt; (11, 7) -&gt; (12, 7) -&gt; (13, 7) -&gt; (14, 7) -&gt; (15, 7) -&gt; (16, 7) -&gt; (16, 6) -&gt; (16, 5) -&gt; (16, 4) -&gt; (16, 3)</t>
+          <t>(1, 1) -&gt; (2, 1) -&gt; (3, 1) -&gt; (4, 1) -&gt; (5, 1) -&gt; (6, 1) -&gt; (7, 1) -&gt; (8, 1) -&gt; (9, 1) -&gt; (10, 1) -&gt; (11, 1) -&gt; (11, 2) -&gt; (11, 3)</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>((18, 11))</t>
+          <t>((22, 7))</t>
         </is>
       </c>
       <c r="C6" s="4" t="b">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>(16, 3) -&gt; (17, 3) -&gt; (18, 3) -&gt; (18, 4) -&gt; (18, 5) -&gt; (18, 6) -&gt; (18, 7) -&gt; (18, 8) -&gt; (18, 9) -&gt; (18, 10) -&gt; (18, 11)</t>
+          <t>(11, 3) -&gt; (12, 3) -&gt; (13, 3) -&gt; (14, 3) -&gt; (15, 3) -&gt; (16, 3) -&gt; (17, 3) -&gt; (18, 3) -&gt; (19, 3) -&gt; (20, 3) -&gt; (21, 3) -&gt; (22, 3) -&gt; (22, 4) -&gt; (22, 5) -&gt; (22, 6) -&gt; (22, 7)</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>((12, 7))</t>
+          <t>((4, 13))</t>
         </is>
       </c>
       <c r="C7" s="4" t="b">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>(18, 11) -&gt; (17, 11) -&gt; (16, 11) -&gt; (15, 11) -&gt; (14, 11) -&gt; (13, 11) -&gt; (12, 11) -&gt; (12, 10) -&gt; (12, 9) -&gt; (12, 8) -&gt; (12, 7)</t>
+          <t>(22, 7) -&gt; (21, 7) -&gt; (21, 8) -&gt; (21, 9) -&gt; (21, 10) -&gt; (20, 10) -&gt; (19, 10) -&gt; (18, 10) -&gt; (17, 10) -&gt; (16, 10) -&gt; (15, 10) -&gt; (14, 10) -&gt; (13, 10) -&gt; (12, 10) -&gt; (11, 10) -&gt; (10, 10) -&gt; (9, 10) -&gt; (8, 10) -&gt; (7, 10) -&gt; (6, 10) -&gt; (5, 10) -&gt; (4, 10) -&gt; (4, 11) -&gt; (4, 12) -&gt; (4, 13)</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>((22, 7))</t>
+          <t>((19, 1))</t>
         </is>
       </c>
       <c r="C8" s="4" t="b">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>(12, 7) -&gt; (13, 7) -&gt; (14, 7) -&gt; (15, 7) -&gt; (16, 7) -&gt; (17, 7) -&gt; (18, 7) -&gt; (19, 7) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (20, 10) -&gt; (21, 10) -&gt; (22, 10) -&gt; (22, 9) -&gt; (22, 8) -&gt; (22, 7)</t>
+          <t>(4, 13) -&gt; (5, 13) -&gt; (6, 13) -&gt; (7, 13) -&gt; (8, 13) -&gt; (9, 13) -&gt; (10, 13) -&gt; (11, 13) -&gt; (12, 13) -&gt; (13, 13) -&gt; (14, 13) -&gt; (15, 13) -&gt; (16, 13) -&gt; (17, 13) -&gt; (18, 13) -&gt; (19, 13) -&gt; (19, 12) -&gt; (19, 11) -&gt; (19, 10) -&gt; (19, 9) -&gt; (19, 8) -&gt; (19, 7) -&gt; (19, 6) -&gt; (19, 5) -&gt; (19, 4) -&gt; (19, 3) -&gt; (19, 2) -&gt; (19, 1)</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>((1, 13))</t>
+          <t>((5, 5))</t>
         </is>
       </c>
       <c r="C9" s="4" t="b">
@@ -1626,18 +1626,102 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>(22, 7) -&gt; (23, 7) -&gt; (23, 8) -&gt; (23, 9) -&gt; (23, 10) -&gt; (23, 11) -&gt; (22, 11) -&gt; (21, 11) -&gt; (20, 11) -&gt; (19, 11) -&gt; (18, 11) -&gt; (17, 11) -&gt; (16, 11) -&gt; (15, 11) -&gt; (14, 11) -&gt; (13, 11) -&gt; (12, 11) -&gt; (11, 11) -&gt; (10, 11) -&gt; (9, 11) -&gt; (8, 11) -&gt; (7, 11) -&gt; (6, 11) -&gt; (5, 11) -&gt; (4, 11) -&gt; (3, 11) -&gt; (2, 11) -&gt; (1, 11) -&gt; (1, 12) -&gt; (1, 13)</t>
+          <t>(19, 1) -&gt; (18, 1) -&gt; (17, 1) -&gt; (16, 1) -&gt; (15, 1) -&gt; (14, 1) -&gt; (13, 1) -&gt; (12, 1) -&gt; (11, 1) -&gt; (10, 1) -&gt; (10, 2) -&gt; (10, 3) -&gt; (9, 3) -&gt; (8, 3) -&gt; (7, 3) -&gt; (6, 3) -&gt; (5, 3) -&gt; (5, 4) -&gt; (5, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>((12, 14))</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>(5, 5) -&gt; (6, 5) -&gt; (6, 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>((12, 14))</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>(6, 4) -&gt; (7, 4) -&gt; (8, 4) -&gt; (9, 4) -&gt; (10, 4) -&gt; (11, 4) -&gt; (12, 4) -&gt; (12, 5) -&gt; (12, 6) -&gt; (12, 7) -&gt; (12, 8) -&gt; (12, 9) -&gt; (12, 10) -&gt; (12, 11) -&gt; (12, 12) -&gt; (12, 13) -&gt; (12, 14)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>((14, 8))</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>(12, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (13, 12) -&gt; (13, 11) -&gt; (14, 11) -&gt; (14, 10) -&gt; (14, 9) -&gt; (14, 8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>((22, 13))</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>(14, 8) -&gt; (15, 8) -&gt; (16, 8) -&gt; (17, 8) -&gt; (18, 8) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (20, 10) -&gt; (21, 10) -&gt; (22, 10) -&gt; (22, 11) -&gt; (22, 12) -&gt; (22, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Average explored states:</t>
         </is>
       </c>
-      <c r="D12" s="3">
-        <f>SUM(D3:D8) / COUNTIF(C3:C8, True)</f>
+      <c r="D15" s="3">
+        <f>SUM(D3:D12) / COUNTIF(C3:C12, True)</f>
         <v/>
       </c>
     </row>
@@ -1652,7 +1736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,18 +1780,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>((10, 7))</t>
+          <t>((12, 7))</t>
         </is>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7)</t>
+          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7) -&gt; (11, 7) -&gt; (12, 7)</t>
         </is>
       </c>
     </row>
@@ -1717,18 +1801,18 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>((4, 7))</t>
+          <t>((1, 1))</t>
         </is>
       </c>
       <c r="C4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>(10, 7) -&gt; (10, 6) -&gt; (9, 6) -&gt; (8, 6) -&gt; (7, 6) -&gt; (6, 6) -&gt; (5, 6) -&gt; (4, 6) -&gt; (4, 7)</t>
+          <t>(12, 7) -&gt; (12, 6) -&gt; (11, 6) -&gt; (10, 6) -&gt; (9, 6) -&gt; (8, 6) -&gt; (7, 6) -&gt; (6, 6) -&gt; (5, 6) -&gt; (4, 6) -&gt; (4, 5) -&gt; (4, 4) -&gt; (3, 4) -&gt; (2, 4) -&gt; (1, 4) -&gt; (1, 3) -&gt; (1, 2) -&gt; (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1738,18 +1822,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>((16, 3))</t>
+          <t>((11, 3))</t>
         </is>
       </c>
       <c r="C5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>(4, 7) -&gt; (4, 8) -&gt; (4, 9) -&gt; (4, 10) -&gt; (3, 10) -&gt; (2, 10) -&gt; (1, 10) -&gt; (1, 9) -&gt; (1, 8) -&gt; (1, 7) -&gt; (1, 6) -&gt; (1, 5) -&gt; (1, 4) -&gt; (1, 3) -&gt; (1, 2) -&gt; (1, 1) -&gt; (2, 1) -&gt; (3, 1) -&gt; (4, 1) -&gt; (5, 1) -&gt; (6, 1) -&gt; (7, 1) -&gt; (8, 1) -&gt; (9, 1) -&gt; (10, 1) -&gt; (11, 1) -&gt; (12, 1) -&gt; (12, 2) -&gt; (12, 3) -&gt; (13, 3) -&gt; (14, 3) -&gt; (15, 3) -&gt; (16, 3)</t>
+          <t>(1, 1) -&gt; (2, 1) -&gt; (3, 1) -&gt; (4, 1) -&gt; (5, 1) -&gt; (6, 1) -&gt; (7, 1) -&gt; (8, 1) -&gt; (9, 1) -&gt; (10, 1) -&gt; (10, 2) -&gt; (10, 3) -&gt; (11, 3)</t>
         </is>
       </c>
     </row>
@@ -1759,18 +1843,18 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>((18, 11))</t>
+          <t>((22, 7))</t>
         </is>
       </c>
       <c r="C6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>(16, 3) -&gt; (16, 4) -&gt; (15, 4) -&gt; (14, 4) -&gt; (13, 4) -&gt; (12, 4) -&gt; (11, 4) -&gt; (10, 4) -&gt; (9, 4) -&gt; (8, 4) -&gt; (7, 4) -&gt; (6, 4) -&gt; (5, 4) -&gt; (4, 4) -&gt; (4, 5) -&gt; (4, 6) -&gt; (5, 6) -&gt; (6, 6) -&gt; (7, 6) -&gt; (8, 6) -&gt; (9, 6) -&gt; (10, 6) -&gt; (11, 6) -&gt; (12, 6) -&gt; (13, 6) -&gt; (14, 6) -&gt; (14, 7) -&gt; (14, 8) -&gt; (14, 9) -&gt; (14, 10) -&gt; (14, 11) -&gt; (15, 11) -&gt; (16, 11) -&gt; (17, 11) -&gt; (18, 11)</t>
+          <t>(11, 3) -&gt; (12, 3) -&gt; (13, 3) -&gt; (14, 3) -&gt; (15, 3) -&gt; (16, 3) -&gt; (17, 3) -&gt; (18, 3) -&gt; (18, 4) -&gt; (19, 4) -&gt; (20, 4) -&gt; (21, 4) -&gt; (21, 5) -&gt; (21, 6) -&gt; (21, 7) -&gt; (22, 7)</t>
         </is>
       </c>
     </row>
@@ -1780,18 +1864,18 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>((12, 7))</t>
+          <t>((4, 13))</t>
         </is>
       </c>
       <c r="C7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>(18, 11) -&gt; (18, 10) -&gt; (17, 10) -&gt; (16, 10) -&gt; (15, 10) -&gt; (14, 10) -&gt; (13, 10) -&gt; (12, 10) -&gt; (12, 9) -&gt; (12, 8) -&gt; (12, 7)</t>
+          <t>(22, 7) -&gt; (22, 6) -&gt; (22, 5) -&gt; (22, 4) -&gt; (22, 3) -&gt; (21, 3) -&gt; (20, 3) -&gt; (19, 3) -&gt; (18, 3) -&gt; (17, 3) -&gt; (16, 3) -&gt; (15, 3) -&gt; (14, 3) -&gt; (13, 3) -&gt; (12, 3) -&gt; (11, 3) -&gt; (10, 3) -&gt; (9, 3) -&gt; (8, 3) -&gt; (7, 3) -&gt; (6, 3) -&gt; (5, 3) -&gt; (4, 3) -&gt; (3, 3) -&gt; (2, 3) -&gt; (1, 3) -&gt; (1, 4) -&gt; (1, 5) -&gt; (1, 6) -&gt; (1, 7) -&gt; (1, 8) -&gt; (1, 9) -&gt; (1, 10) -&gt; (1, 11) -&gt; (1, 12) -&gt; (1, 13) -&gt; (2, 13) -&gt; (3, 13) -&gt; (4, 13)</t>
         </is>
       </c>
     </row>
@@ -1801,18 +1885,18 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>((22, 7))</t>
+          <t>((19, 1))</t>
         </is>
       </c>
       <c r="C8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>(12, 7) -&gt; (11, 7) -&gt; (10, 7) -&gt; (9, 7) -&gt; (8, 7) -&gt; (7, 7) -&gt; (6, 7) -&gt; (5, 7) -&gt; (4, 7) -&gt; (4, 6) -&gt; (4, 5) -&gt; (4, 4) -&gt; (4, 3) -&gt; (5, 3) -&gt; (6, 3) -&gt; (7, 3) -&gt; (8, 3) -&gt; (9, 3) -&gt; (10, 3) -&gt; (11, 3) -&gt; (12, 3) -&gt; (13, 3) -&gt; (14, 3) -&gt; (15, 3) -&gt; (16, 3) -&gt; (17, 3) -&gt; (18, 3) -&gt; (18, 4) -&gt; (19, 4) -&gt; (20, 4) -&gt; (21, 4) -&gt; (21, 5) -&gt; (21, 6) -&gt; (21, 7) -&gt; (22, 7)</t>
+          <t>(4, 13) -&gt; (4, 12) -&gt; (3, 12) -&gt; (2, 12) -&gt; (2, 11) -&gt; (2, 10) -&gt; (1, 10) -&gt; (1, 9) -&gt; (1, 8) -&gt; (1, 7) -&gt; (1, 6) -&gt; (1, 5) -&gt; (1, 4) -&gt; (1, 3) -&gt; (1, 2) -&gt; (1, 1) -&gt; (2, 1) -&gt; (3, 1) -&gt; (4, 1) -&gt; (5, 1) -&gt; (6, 1) -&gt; (7, 1) -&gt; (8, 1) -&gt; (9, 1) -&gt; (10, 1) -&gt; (11, 1) -&gt; (12, 1) -&gt; (13, 1) -&gt; (14, 1) -&gt; (15, 1) -&gt; (16, 1) -&gt; (17, 1) -&gt; (18, 1) -&gt; (19, 1)</t>
         </is>
       </c>
     </row>
@@ -1822,29 +1906,92 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>((1, 13))</t>
+          <t>((5, 5))</t>
         </is>
       </c>
       <c r="C9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>(22, 7) -&gt; (22, 6) -&gt; (22, 5) -&gt; (22, 4) -&gt; (22, 3) -&gt; (21, 3) -&gt; (20, 3) -&gt; (19, 3) -&gt; (18, 3) -&gt; (17, 3) -&gt; (16, 3) -&gt; (15, 3) -&gt; (14, 3) -&gt; (13, 3) -&gt; (12, 3) -&gt; (11, 3) -&gt; (10, 3) -&gt; (9, 3) -&gt; (8, 3) -&gt; (7, 3) -&gt; (6, 3) -&gt; (5, 3) -&gt; (4, 3) -&gt; (3, 3) -&gt; (2, 3) -&gt; (1, 3) -&gt; (1, 4) -&gt; (1, 5) -&gt; (1, 6) -&gt; (1, 7) -&gt; (1, 8) -&gt; (1, 9) -&gt; (1, 10) -&gt; (1, 11) -&gt; (1, 12) -&gt; (1, 13)</t>
+          <t>(19, 1) -&gt; (19, 2) -&gt; (19, 3) -&gt; (18, 3) -&gt; (17, 3) -&gt; (16, 3) -&gt; (15, 3) -&gt; (14, 3) -&gt; (13, 3) -&gt; (12, 3) -&gt; (11, 3) -&gt; (10, 3) -&gt; (9, 3) -&gt; (8, 3) -&gt; (7, 3) -&gt; (6, 3) -&gt; (5, 3) -&gt; (5, 4) -&gt; (5, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>((12, 14))</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>(5, 5) -&gt; (4, 5) -&gt; (4, 6) -&gt; (4, 7) -&gt; (4, 8) -&gt; (4, 9) -&gt; (5, 9) -&gt; (6, 9) -&gt; (7, 9) -&gt; (8, 9) -&gt; (8, 10) -&gt; (8, 11) -&gt; (9, 11) -&gt; (10, 11) -&gt; (10, 12) -&gt; (10, 13) -&gt; (11, 13) -&gt; (12, 13) -&gt; (12, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>((14, 8))</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>(12, 14) -&gt; (11, 14) -&gt; (10, 14) -&gt; (9, 14) -&gt; (9, 13) -&gt; (8, 13) -&gt; (7, 13) -&gt; (6, 13) -&gt; (5, 13) -&gt; (4, 13) -&gt; (3, 13) -&gt; (2, 13) -&gt; (1, 13) -&gt; (1, 12) -&gt; (1, 11) -&gt; (1, 10) -&gt; (1, 9) -&gt; (1, 8) -&gt; (1, 7) -&gt; (1, 6) -&gt; (1, 5) -&gt; (1, 4) -&gt; (1, 3) -&gt; (2, 3) -&gt; (3, 3) -&gt; (4, 3) -&gt; (5, 3) -&gt; (6, 3) -&gt; (7, 3) -&gt; (8, 3) -&gt; (9, 3) -&gt; (10, 3) -&gt; (10, 4) -&gt; (10, 5) -&gt; (10, 6) -&gt; (11, 6) -&gt; (12, 6) -&gt; (13, 6) -&gt; (13, 7) -&gt; (13, 8) -&gt; (14, 8)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>((22, 13))</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>(14, 8) -&gt; (15, 8) -&gt; (16, 8) -&gt; (17, 8) -&gt; (18, 8) -&gt; (18, 9) -&gt; (18, 10) -&gt; (18, 11) -&gt; (19, 11) -&gt; (19, 12) -&gt; (19, 13) -&gt; (20, 13) -&gt; (21, 13) -&gt; (22, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Average explored states:</t>
         </is>
       </c>
-      <c r="D12" s="3">
-        <f>SUM(D3:D8) / COUNTIF(C3:C8, True)</f>
+      <c r="D15" s="3">
+        <f>SUM(D3:D11) / COUNTIF(C3:C11, True)</f>
         <v/>
       </c>
     </row>
@@ -1859,7 +2006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1903,18 +2050,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>((10, 7))</t>
+          <t>((12, 7))</t>
         </is>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7)</t>
+          <t>(8, 7) -&gt; (9, 7) -&gt; (10, 7) -&gt; (11, 7) -&gt; (12, 7)</t>
         </is>
       </c>
     </row>
@@ -1924,18 +2071,18 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>((4, 7))</t>
+          <t>((1, 1))</t>
         </is>
       </c>
       <c r="C4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>(10, 7) -&gt; (10, 8) -&gt; (9, 8) -&gt; (8, 8) -&gt; (7, 8) -&gt; (6, 8) -&gt; (5, 8) -&gt; (4, 8) -&gt; (4, 7)</t>
+          <t>(12, 7) -&gt; (12, 6) -&gt; (11, 6) -&gt; (10, 6) -&gt; (9, 6) -&gt; (8, 6) -&gt; (7, 6) -&gt; (6, 6) -&gt; (5, 6) -&gt; (5, 5) -&gt; (4, 5) -&gt; (4, 4) -&gt; (3, 4) -&gt; (3, 3) -&gt; (2, 3) -&gt; (2, 2) -&gt; (1, 2) -&gt; (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1945,18 +2092,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>((16, 3))</t>
+          <t>((11, 3))</t>
         </is>
       </c>
       <c r="C5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>(4, 7) -&gt; (5, 7) -&gt; (6, 7) -&gt; (7, 7) -&gt; (8, 7) -&gt; (9, 7) -&gt; (10, 7) -&gt; (11, 7) -&gt; (12, 7) -&gt; (13, 7) -&gt; (13, 6) -&gt; (14, 6) -&gt; (14, 5) -&gt; (15, 5) -&gt; (15, 4) -&gt; (16, 4) -&gt; (16, 3)</t>
+          <t>(1, 1) -&gt; (2, 1) -&gt; (3, 1) -&gt; (4, 1) -&gt; (5, 1) -&gt; (6, 1) -&gt; (7, 1) -&gt; (8, 1) -&gt; (9, 1) -&gt; (10, 1) -&gt; (10, 2) -&gt; (11, 2) -&gt; (11, 3)</t>
         </is>
       </c>
     </row>
@@ -1966,18 +2113,18 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>((18, 11))</t>
+          <t>((22, 7))</t>
         </is>
       </c>
       <c r="C6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>(16, 3) -&gt; (17, 3) -&gt; (17, 4) -&gt; (17, 5) -&gt; (17, 6) -&gt; (17, 7) -&gt; (17, 8) -&gt; (17, 9) -&gt; (17, 10) -&gt; (18, 10) -&gt; (18, 11)</t>
+          <t>(11, 3) -&gt; (12, 3) -&gt; (13, 3) -&gt; (14, 3) -&gt; (15, 3) -&gt; (16, 3) -&gt; (17, 3) -&gt; (18, 3) -&gt; (19, 3) -&gt; (19, 4) -&gt; (20, 4) -&gt; (21, 4) -&gt; (21, 5) -&gt; (21, 6) -&gt; (22, 6) -&gt; (22, 7)</t>
         </is>
       </c>
     </row>
@@ -1987,18 +2134,18 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>((12, 7))</t>
+          <t>((4, 13))</t>
         </is>
       </c>
       <c r="C7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>(18, 11) -&gt; (17, 11) -&gt; (16, 11) -&gt; (15, 11) -&gt; (15, 10) -&gt; (14, 10) -&gt; (14, 9) -&gt; (13, 9) -&gt; (13, 8) -&gt; (12, 8) -&gt; (12, 7)</t>
+          <t>(22, 7) -&gt; (21, 7) -&gt; (21, 8) -&gt; (21, 9) -&gt; (21, 10) -&gt; (20, 10) -&gt; (19, 10) -&gt; (18, 10) -&gt; (17, 10) -&gt; (16, 10) -&gt; (15, 10) -&gt; (14, 10) -&gt; (13, 10) -&gt; (12, 10) -&gt; (11, 10) -&gt; (10, 10) -&gt; (9, 10) -&gt; (8, 10) -&gt; (7, 10) -&gt; (6, 10) -&gt; (6, 11) -&gt; (5, 11) -&gt; (4, 11) -&gt; (4, 12) -&gt; (4, 13)</t>
         </is>
       </c>
     </row>
@@ -2008,18 +2155,18 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>((22, 7))</t>
+          <t>((19, 1))</t>
         </is>
       </c>
       <c r="C8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>(12, 7) -&gt; (13, 7) -&gt; (14, 7) -&gt; (15, 7) -&gt; (16, 7) -&gt; (17, 7) -&gt; (18, 7) -&gt; (19, 7) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (20, 10) -&gt; (21, 10) -&gt; (21, 9) -&gt; (21, 8) -&gt; (22, 8) -&gt; (22, 7)</t>
+          <t>(4, 13) -&gt; (5, 13) -&gt; (6, 13) -&gt; (7, 13) -&gt; (8, 13) -&gt; (9, 13) -&gt; (10, 13) -&gt; (10, 12) -&gt; (10, 11) -&gt; (10, 10) -&gt; (11, 10) -&gt; (11, 9) -&gt; (12, 9) -&gt; (12, 8) -&gt; (13, 8) -&gt; (13, 7) -&gt; (14, 7) -&gt; (14, 6) -&gt; (15, 6) -&gt; (15, 5) -&gt; (16, 5) -&gt; (16, 4) -&gt; (17, 4) -&gt; (17, 3) -&gt; (18, 3) -&gt; (19, 3) -&gt; (19, 2) -&gt; (19, 1)</t>
         </is>
       </c>
     </row>
@@ -2029,29 +2176,92 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>((1, 13))</t>
+          <t>((5, 5))</t>
         </is>
       </c>
       <c r="C9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>(22, 7) -&gt; (21, 7) -&gt; (21, 6) -&gt; (21, 5) -&gt; (21, 4) -&gt; (20, 4) -&gt; (19, 4) -&gt; (18, 4) -&gt; (17, 4) -&gt; (16, 4) -&gt; (15, 4) -&gt; (14, 4) -&gt; (13, 4) -&gt; (12, 4) -&gt; (11, 4) -&gt; (10, 4) -&gt; (9, 4) -&gt; (9, 5) -&gt; (8, 5) -&gt; (8, 6) -&gt; (7, 6) -&gt; (7, 7) -&gt; (6, 7) -&gt; (6, 8) -&gt; (5, 8) -&gt; (5, 9) -&gt; (4, 9) -&gt; (4, 10) -&gt; (3, 10) -&gt; (3, 11) -&gt; (2, 11) -&gt; (2, 12) -&gt; (1, 12) -&gt; (1, 13)</t>
+          <t>(19, 1) -&gt; (18, 1) -&gt; (17, 1) -&gt; (16, 1) -&gt; (15, 1) -&gt; (14, 1) -&gt; (13, 1) -&gt; (12, 1) -&gt; (11, 1) -&gt; (10, 1) -&gt; (9, 1) -&gt; (8, 1) -&gt; (7, 1) -&gt; (6, 1) -&gt; (5, 1) -&gt; (4, 1) -&gt; (4, 2) -&gt; (4, 3) -&gt; (4, 4) -&gt; (5, 4) -&gt; (5, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>((12, 14))</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>(5, 5) -&gt; (5, 6) -&gt; (5, 7) -&gt; (6, 7) -&gt; (6, 8) -&gt; (7, 8) -&gt; (7, 9) -&gt; (8, 9) -&gt; (8, 10) -&gt; (9, 10) -&gt; (9, 11) -&gt; (10, 11) -&gt; (10, 12) -&gt; (11, 12) -&gt; (11, 13) -&gt; (12, 13) -&gt; (12, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>((14, 8))</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>(12, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (13, 12) -&gt; (13, 11) -&gt; (13, 10) -&gt; (13, 9) -&gt; (14, 9) -&gt; (14, 8)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>((22, 13))</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>(14, 8) -&gt; (15, 8) -&gt; (16, 8) -&gt; (17, 8) -&gt; (18, 8) -&gt; (18, 9) -&gt; (19, 9) -&gt; (19, 10) -&gt; (20, 10) -&gt; (20, 11) -&gt; (21, 11) -&gt; (21, 12) -&gt; (22, 12) -&gt; (22, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Average explored states:</t>
         </is>
       </c>
-      <c r="D12" s="3">
-        <f>SUM(D3:D8) / COUNTIF(C3:C8, True)</f>
+      <c r="D15" s="3">
+        <f>SUM(D3:D11) / COUNTIF(C3:C11, True)</f>
         <v/>
       </c>
     </row>

--- a/Project_AI_cuoi_ky/Stats.xlsx
+++ b/Project_AI_cuoi_ky/Stats.xlsx
@@ -532,6 +532,132 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>((4, 13))</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>275</v>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>(22, 7) -&gt; (21, 7) -&gt; (21, 8) -&gt; (21, 9) -&gt; (21, 10) -&gt; (20, 10) -&gt; (19, 10) -&gt; (18, 10) -&gt; (17, 10) -&gt; (16, 10) -&gt; (15, 10) -&gt; (14, 10) -&gt; (13, 10) -&gt; (12, 10) -&gt; (11, 10) -&gt; (10, 10) -&gt; (9, 10) -&gt; (8, 10) -&gt; (7, 10) -&gt; (6, 10) -&gt; (5, 10) -&gt; (4, 10) -&gt; (4, 11) -&gt; (4, 12) -&gt; (4, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>((19, 1))</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>309</v>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>(4, 13) -&gt; (5, 13) -&gt; (6, 13) -&gt; (7, 13) -&gt; (8, 13) -&gt; (9, 13) -&gt; (10, 13) -&gt; (11, 13) -&gt; (12, 13) -&gt; (13, 13) -&gt; (14, 13) -&gt; (15, 13) -&gt; (16, 13) -&gt; (17, 13) -&gt; (18, 13) -&gt; (19, 13) -&gt; (19, 12) -&gt; (19, 11) -&gt; (19, 10) -&gt; (19, 9) -&gt; (19, 8) -&gt; (19, 7) -&gt; (19, 6) -&gt; (19, 5) -&gt; (19, 4) -&gt; (19, 3) -&gt; (19, 2) -&gt; (19, 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>((5, 5))</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>212</v>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>(19, 1) -&gt; (18, 1) -&gt; (17, 1) -&gt; (16, 1) -&gt; (15, 1) -&gt; (14, 1) -&gt; (13, 1) -&gt; (12, 1) -&gt; (11, 1) -&gt; (10, 1) -&gt; (10, 2) -&gt; (10, 3) -&gt; (9, 3) -&gt; (8, 3) -&gt; (7, 3) -&gt; (6, 3) -&gt; (5, 3) -&gt; (5, 4) -&gt; (5, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>((12, 14))</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>239</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>(5, 5) -&gt; (6, 5) -&gt; (7, 5) -&gt; (8, 5) -&gt; (9, 5) -&gt; (10, 5) -&gt; (11, 5) -&gt; (12, 5) -&gt; (12, 6) -&gt; (12, 7) -&gt; (12, 8) -&gt; (12, 9) -&gt; (12, 10) -&gt; (12, 11) -&gt; (12, 12) -&gt; (12, 13) -&gt; (12, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>((14, 8))</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>(12, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (13, 12) -&gt; (13, 11) -&gt; (14, 11) -&gt; (14, 10) -&gt; (14, 9) -&gt; (14, 8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>((22, 13))</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>(14, 8) -&gt; (15, 8) -&gt; (16, 8) -&gt; (17, 8) -&gt; (18, 8) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (20, 10) -&gt; (21, 10) -&gt; (22, 10) -&gt; (22, 11) -&gt; (22, 12) -&gt; (22, 13)</t>
+        </is>
+      </c>
+    </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
@@ -539,7 +665,7 @@
         </is>
       </c>
       <c r="D15" s="3">
-        <f>SUM(D3:D5) / COUNTIF(C3:C5, True)</f>
+        <f>SUM(D3:D12) / COUNTIF(C3:C12, True)</f>
         <v/>
       </c>
     </row>
@@ -613,6 +739,195 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>((1, 1))</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>(12, 7) -&gt; (12, 8) -&gt; (12, 9) -&gt; (12, 10) -&gt; (12, 11) -&gt; (12, 12) -&gt; (12, 13) -&gt; (12, 14) -&gt; (11, 14) -&gt; (10, 14) -&gt; (10, 13) -&gt; (10, 12) -&gt; (10, 11) -&gt; (10, 10) -&gt; (10, 9) -&gt; (10, 8) -&gt; (10, 7) -&gt; (10, 6) -&gt; (10, 5) -&gt; (10, 4) -&gt; (10, 3) -&gt; (10, 2) -&gt; (10, 1) -&gt; (10, 0) -&gt; (9, 0) -&gt; (8, 0) -&gt; (8, 1) -&gt; (7, 1) -&gt; (6, 1) -&gt; (6, 0) -&gt; (5, 0) -&gt; (4, 0) -&gt; (4, 1) -&gt; (4, 2) -&gt; (4, 3) -&gt; (4, 4) -&gt; (4, 5) -&gt; (4, 6) -&gt; (4, 7) -&gt; (4, 8) -&gt; (4, 9) -&gt; (4, 10) -&gt; (4, 11) -&gt; (4, 12) -&gt; (4, 13) -&gt; (4, 14) -&gt; (3, 14) -&gt; (2, 14) -&gt; (2, 13) -&gt; (2, 12) -&gt; (2, 11) -&gt; (2, 10) -&gt; (2, 9) -&gt; (2, 8) -&gt; (2, 7) -&gt; (2, 6) -&gt; (2, 5) -&gt; (2, 4) -&gt; (2, 3) -&gt; (2, 2) -&gt; (2, 1) -&gt; (1, 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>((11, 3))</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>275</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>(1, 1) -&gt; (1, 0) -&gt; (2, 0) -&gt; (3, 0) -&gt; (3, 1) -&gt; (3, 2) -&gt; (3, 3) -&gt; (3, 4) -&gt; (2, 4) -&gt; (2, 5) -&gt; (2, 6) -&gt; (2, 7) -&gt; (2, 8) -&gt; (2, 9) -&gt; (2, 10) -&gt; (2, 11) -&gt; (2, 12) -&gt; (2, 13) -&gt; (2, 14) -&gt; (3, 14) -&gt; (4, 14) -&gt; (4, 13) -&gt; (4, 12) -&gt; (4, 11) -&gt; (4, 10) -&gt; (4, 9) -&gt; (4, 8) -&gt; (4, 7) -&gt; (4, 6) -&gt; (4, 5) -&gt; (5, 5) -&gt; (5, 4) -&gt; (5, 3) -&gt; (6, 3) -&gt; (7, 3) -&gt; (7, 4) -&gt; (7, 5) -&gt; (7, 6) -&gt; (7, 7) -&gt; (7, 8) -&gt; (7, 9) -&gt; (7, 10) -&gt; (7, 11) -&gt; (8, 11) -&gt; (9, 11) -&gt; (9, 10) -&gt; (9, 9) -&gt; (9, 8) -&gt; (9, 7) -&gt; (9, 6) -&gt; (9, 5) -&gt; (9, 4) -&gt; (9, 3) -&gt; (10, 3) -&gt; (11, 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>((22, 7))</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>249</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>(11, 3) -&gt; (11, 2) -&gt; (11, 1) -&gt; (11, 0) -&gt; (10, 0) -&gt; (9, 0) -&gt; (9, 1) -&gt; (8, 1) -&gt; (7, 1) -&gt; (7, 0) -&gt; (6, 0) -&gt; (5, 0) -&gt; (5, 1) -&gt; (4, 1) -&gt; (4, 2) -&gt; (4, 3) -&gt; (4, 4) -&gt; (4, 5) -&gt; (4, 6) -&gt; (4, 7) -&gt; (4, 8) -&gt; (4, 9) -&gt; (4, 10) -&gt; (4, 11) -&gt; (4, 12) -&gt; (4, 13) -&gt; (4, 14) -&gt; (5, 14) -&gt; (6, 14) -&gt; (6, 13) -&gt; (7, 13) -&gt; (8, 13) -&gt; (8, 14) -&gt; (9, 14) -&gt; (10, 14) -&gt; (10, 13) -&gt; (10, 12) -&gt; (10, 11) -&gt; (10, 10) -&gt; (10, 9) -&gt; (10, 8) -&gt; (10, 7) -&gt; (10, 6) -&gt; (10, 5) -&gt; (11, 5) -&gt; (12, 5) -&gt; (12, 4) -&gt; (13, 4) -&gt; (13, 3) -&gt; (13, 2) -&gt; (13, 1) -&gt; (13, 0) -&gt; (14, 0) -&gt; (15, 0) -&gt; (15, 1) -&gt; (16, 1) -&gt; (17, 1) -&gt; (17, 0) -&gt; (18, 0) -&gt; (19, 0) -&gt; (19, 1) -&gt; (19, 2) -&gt; (19, 3) -&gt; (19, 4) -&gt; (19, 5) -&gt; (19, 6) -&gt; (19, 7) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (19, 11) -&gt; (19, 12) -&gt; (19, 13) -&gt; (19, 14) -&gt; (20, 14) -&gt; (21, 14) -&gt; (21, 13) -&gt; (21, 12) -&gt; (21, 11) -&gt; (21, 10) -&gt; (21, 9) -&gt; (21, 8) -&gt; (21, 7) -&gt; (22, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>((4, 13))</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>(22, 7) -&gt; (22, 6) -&gt; (22, 5) -&gt; (22, 4) -&gt; (22, 3) -&gt; (22, 2) -&gt; (22, 1) -&gt; (22, 0) -&gt; (21, 0) -&gt; (20, 0) -&gt; (20, 1) -&gt; (20, 2) -&gt; (20, 3) -&gt; (20, 4) -&gt; (19, 4) -&gt; (19, 5) -&gt; (19, 6) -&gt; (19, 7) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (19, 11) -&gt; (19, 12) -&gt; (19, 13) -&gt; (19, 14) -&gt; (18, 14) -&gt; (17, 14) -&gt; (17, 13) -&gt; (16, 13) -&gt; (15, 13) -&gt; (15, 14) -&gt; (14, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (13, 12) -&gt; (13, 11) -&gt; (13, 10) -&gt; (13, 9) -&gt; (13, 8) -&gt; (13, 7) -&gt; (13, 6) -&gt; (13, 5) -&gt; (13, 4) -&gt; (13, 3) -&gt; (13, 2) -&gt; (13, 1) -&gt; (13, 0) -&gt; (12, 0) -&gt; (11, 0) -&gt; (11, 1) -&gt; (11, 2) -&gt; (11, 3) -&gt; (11, 4) -&gt; (11, 5) -&gt; (11, 6) -&gt; (11, 7) -&gt; (11, 8) -&gt; (11, 9) -&gt; (11, 10) -&gt; (11, 11) -&gt; (11, 12) -&gt; (11, 13) -&gt; (11, 14) -&gt; (10, 14) -&gt; (9, 14) -&gt; (9, 13) -&gt; (8, 13) -&gt; (7, 13) -&gt; (7, 14) -&gt; (6, 14) -&gt; (5, 14) -&gt; (5, 13) -&gt; (4, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>((19, 1))</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>112</v>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>(4, 13) -&gt; (4, 12) -&gt; (4, 11) -&gt; (4, 10) -&gt; (4, 9) -&gt; (4, 8) -&gt; (4, 7) -&gt; (4, 6) -&gt; (4, 5) -&gt; (4, 4) -&gt; (4, 3) -&gt; (4, 2) -&gt; (4, 1) -&gt; (4, 0) -&gt; (5, 0) -&gt; (6, 0) -&gt; (6, 1) -&gt; (7, 1) -&gt; (8, 1) -&gt; (8, 0) -&gt; (9, 0) -&gt; (10, 0) -&gt; (10, 1) -&gt; (10, 2) -&gt; (10, 3) -&gt; (10, 4) -&gt; (10, 5) -&gt; (10, 6) -&gt; (10, 7) -&gt; (10, 8) -&gt; (10, 9) -&gt; (10, 10) -&gt; (10, 11) -&gt; (10, 12) -&gt; (10, 13) -&gt; (10, 14) -&gt; (11, 14) -&gt; (12, 14) -&gt; (12, 13) -&gt; (12, 12) -&gt; (12, 11) -&gt; (12, 10) -&gt; (12, 9) -&gt; (12, 8) -&gt; (12, 7) -&gt; (12, 6) -&gt; (12, 5) -&gt; (12, 4) -&gt; (12, 3) -&gt; (12, 2) -&gt; (12, 1) -&gt; (12, 0) -&gt; (13, 0) -&gt; (14, 0) -&gt; (14, 1) -&gt; (15, 1) -&gt; (16, 1) -&gt; (16, 0) -&gt; (17, 0) -&gt; (18, 0) -&gt; (18, 1) -&gt; (19, 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>((5, 5))</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>(19, 1) -&gt; (19, 0) -&gt; (20, 0) -&gt; (21, 0) -&gt; (21, 1) -&gt; (21, 2) -&gt; (21, 3) -&gt; (21, 4) -&gt; (21, 5) -&gt; (21, 6) -&gt; (21, 7) -&gt; (21, 8) -&gt; (21, 9) -&gt; (21, 10) -&gt; (21, 11) -&gt; (21, 12) -&gt; (21, 13) -&gt; (21, 14) -&gt; (20, 14) -&gt; (19, 14) -&gt; (19, 13) -&gt; (19, 12) -&gt; (19, 11) -&gt; (19, 10) -&gt; (19, 9) -&gt; (19, 8) -&gt; (19, 7) -&gt; (19, 6) -&gt; (19, 5) -&gt; (19, 4) -&gt; (19, 3) -&gt; (18, 3) -&gt; (17, 3) -&gt; (17, 4) -&gt; (17, 5) -&gt; (17, 6) -&gt; (17, 7) -&gt; (17, 8) -&gt; (17, 9) -&gt; (17, 10) -&gt; (17, 11) -&gt; (16, 11) -&gt; (15, 11) -&gt; (15, 10) -&gt; (15, 9) -&gt; (15, 8) -&gt; (15, 7) -&gt; (15, 6) -&gt; (15, 5) -&gt; (15, 4) -&gt; (15, 3) -&gt; (14, 3) -&gt; (13, 3) -&gt; (13, 2) -&gt; (13, 1) -&gt; (13, 0) -&gt; (12, 0) -&gt; (11, 0) -&gt; (11, 1) -&gt; (11, 2) -&gt; (11, 3) -&gt; (11, 4) -&gt; (11, 5) -&gt; (11, 6) -&gt; (11, 7) -&gt; (11, 8) -&gt; (11, 9) -&gt; (11, 10) -&gt; (11, 11) -&gt; (11, 12) -&gt; (11, 13) -&gt; (11, 14) -&gt; (10, 14) -&gt; (9, 14) -&gt; (9, 13) -&gt; (8, 13) -&gt; (7, 13) -&gt; (7, 14) -&gt; (6, 14) -&gt; (5, 14) -&gt; (5, 13) -&gt; (4, 13) -&gt; (4, 12) -&gt; (4, 11) -&gt; (4, 10) -&gt; (4, 9) -&gt; (4, 8) -&gt; (4, 7) -&gt; (4, 6) -&gt; (4, 5) -&gt; (5, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>((12, 14))</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>(5, 5) -&gt; (5, 4) -&gt; (5, 3) -&gt; (4, 3) -&gt; (4, 2) -&gt; (4, 1) -&gt; (4, 0) -&gt; (3, 0) -&gt; (2, 0) -&gt; (2, 1) -&gt; (2, 2) -&gt; (2, 3) -&gt; (2, 4) -&gt; (2, 5) -&gt; (2, 6) -&gt; (2, 7) -&gt; (2, 8) -&gt; (2, 9) -&gt; (2, 10) -&gt; (2, 11) -&gt; (2, 12) -&gt; (2, 13) -&gt; (2, 14) -&gt; (3, 14) -&gt; (4, 14) -&gt; (4, 13) -&gt; (5, 13) -&gt; (6, 13) -&gt; (6, 14) -&gt; (7, 14) -&gt; (8, 14) -&gt; (8, 13) -&gt; (9, 13) -&gt; (10, 13) -&gt; (10, 12) -&gt; (10, 11) -&gt; (10, 10) -&gt; (10, 9) -&gt; (10, 8) -&gt; (10, 7) -&gt; (10, 6) -&gt; (10, 5) -&gt; (10, 4) -&gt; (10, 3) -&gt; (10, 2) -&gt; (10, 1) -&gt; (10, 0) -&gt; (11, 0) -&gt; (12, 0) -&gt; (12, 1) -&gt; (12, 2) -&gt; (12, 3) -&gt; (12, 4) -&gt; (12, 5) -&gt; (12, 6) -&gt; (12, 7) -&gt; (12, 8) -&gt; (12, 9) -&gt; (12, 10) -&gt; (12, 11) -&gt; (12, 12) -&gt; (12, 13) -&gt; (12, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>((14, 8))</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>(12, 14) -&gt; (11, 14) -&gt; (11, 13) -&gt; (11, 12) -&gt; (11, 11) -&gt; (11, 10) -&gt; (11, 9) -&gt; (11, 8) -&gt; (11, 7) -&gt; (11, 6) -&gt; (11, 5) -&gt; (11, 4) -&gt; (11, 3) -&gt; (11, 2) -&gt; (11, 1) -&gt; (11, 0) -&gt; (12, 0) -&gt; (13, 0) -&gt; (13, 1) -&gt; (13, 2) -&gt; (13, 3) -&gt; (13, 4) -&gt; (13, 5) -&gt; (13, 6) -&gt; (13, 7) -&gt; (13, 8) -&gt; (14, 8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>((22, 13))</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>227</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>(14, 8) -&gt; (14, 7) -&gt; (14, 6) -&gt; (14, 5) -&gt; (14, 4) -&gt; (14, 3) -&gt; (15, 3) -&gt; (16, 3) -&gt; (16, 4) -&gt; (16, 5) -&gt; (16, 6) -&gt; (16, 7) -&gt; (16, 8) -&gt; (16, 9) -&gt; (16, 10) -&gt; (16, 11) -&gt; (15, 11) -&gt; (14, 11) -&gt; (14, 10) -&gt; (13, 10) -&gt; (13, 9) -&gt; (12, 9) -&gt; (12, 8) -&gt; (12, 7) -&gt; (12, 6) -&gt; (12, 5) -&gt; (12, 4) -&gt; (12, 3) -&gt; (12, 2) -&gt; (12, 1) -&gt; (12, 0) -&gt; (11, 0) -&gt; (10, 0) -&gt; (10, 1) -&gt; (10, 2) -&gt; (10, 3) -&gt; (10, 4) -&gt; (10, 5) -&gt; (10, 6) -&gt; (10, 7) -&gt; (10, 8) -&gt; (10, 9) -&gt; (10, 10) -&gt; (10, 11) -&gt; (10, 12) -&gt; (10, 13) -&gt; (10, 14) -&gt; (11, 14) -&gt; (12, 14) -&gt; (12, 13) -&gt; (13, 13) -&gt; (14, 13) -&gt; (14, 14) -&gt; (15, 14) -&gt; (16, 14) -&gt; (16, 13) -&gt; (17, 13) -&gt; (18, 13) -&gt; (18, 14) -&gt; (19, 14) -&gt; (20, 14) -&gt; (20, 13) -&gt; (20, 12) -&gt; (20, 11) -&gt; (20, 10) -&gt; (19, 10) -&gt; (19, 9) -&gt; (19, 8) -&gt; (19, 7) -&gt; (19, 6) -&gt; (19, 5) -&gt; (19, 4) -&gt; (19, 3) -&gt; (19, 2) -&gt; (19, 1) -&gt; (19, 0) -&gt; (20, 0) -&gt; (21, 0) -&gt; (21, 1) -&gt; (21, 2) -&gt; (21, 3) -&gt; (21, 4) -&gt; (21, 5) -&gt; (21, 6) -&gt; (21, 7) -&gt; (21, 8) -&gt; (21, 9) -&gt; (22, 9) -&gt; (22, 10) -&gt; (22, 11) -&gt; (22, 12) -&gt; (22, 13)</t>
+        </is>
+      </c>
+    </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
@@ -620,7 +935,7 @@
         </is>
       </c>
       <c r="D15" s="3">
-        <f>SUM(D3:D2) / COUNTIF(C3:C2, True)</f>
+        <f>SUM(D3:D12) / COUNTIF(C3:C12, True)</f>
         <v/>
       </c>
     </row>
@@ -890,7 +1205,7 @@
         </is>
       </c>
       <c r="D15" s="3">
-        <f>SUM(D3:D11) / COUNTIF(C3:C11, True)</f>
+        <f>SUM(D3:D12) / COUNTIF(C3:C12, True)</f>
         <v/>
       </c>
     </row>
@@ -1160,7 +1475,7 @@
         </is>
       </c>
       <c r="D15" s="3">
-        <f>SUM(D3:D11) / COUNTIF(C3:C11, True)</f>
+        <f>SUM(D3:D12) / COUNTIF(C3:C12, True)</f>
         <v/>
       </c>
     </row>
@@ -1430,7 +1745,7 @@
         </is>
       </c>
       <c r="D15" s="3">
-        <f>SUM(D3:D11) / COUNTIF(C3:C11, True)</f>
+        <f>SUM(D3:D12) / COUNTIF(C3:C12, True)</f>
         <v/>
       </c>
     </row>
@@ -1647,7 +1962,7 @@
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>(5, 5) -&gt; (6, 5) -&gt; (6, 4)</t>
+          <t>(5, 5) -&gt; (4, 5)</t>
         </is>
       </c>
     </row>
@@ -1661,24 +1976,24 @@
         </is>
       </c>
       <c r="C11" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>66</v>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>(6, 4) -&gt; (7, 4) -&gt; (8, 4) -&gt; (9, 4) -&gt; (10, 4) -&gt; (11, 4) -&gt; (12, 4) -&gt; (12, 5) -&gt; (12, 6) -&gt; (12, 7) -&gt; (12, 8) -&gt; (12, 9) -&gt; (12, 10) -&gt; (12, 11) -&gt; (12, 12) -&gt; (12, 13) -&gt; (12, 14)</t>
+          <t>(4, 5) -&gt; (4, 4) -&gt; (3, 4) -&gt; (2, 4) -&gt; (1, 4) -&gt; (0, 4) -&gt; (0, 3) -&gt; (0, 2) -&gt; (0, 1) -&gt; (0, 0)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>((14, 8))</t>
+          <t>((12, 14))</t>
         </is>
       </c>
       <c r="C12" s="4" t="b">
@@ -1689,17 +2004,17 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>(12, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (13, 12) -&gt; (13, 11) -&gt; (14, 11) -&gt; (14, 10) -&gt; (14, 9) -&gt; (14, 8)</t>
+          <t>(0, 0) -&gt; (1, 0) -&gt; (2, 0) -&gt; (3, 0) -&gt; (4, 0) -&gt; (5, 0) -&gt; (6, 0) -&gt; (7, 0) -&gt; (8, 0) -&gt; (9, 0) -&gt; (10, 0) -&gt; (11, 0) -&gt; (12, 0) -&gt; (12, 1) -&gt; (12, 2) -&gt; (12, 3) -&gt; (12, 4) -&gt; (12, 5) -&gt; (12, 6) -&gt; (12, 7) -&gt; (12, 8) -&gt; (12, 9) -&gt; (12, 10) -&gt; (12, 11) -&gt; (12, 12) -&gt; (12, 13) -&gt; (12, 14)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>((22, 13))</t>
+          <t>((14, 8))</t>
         </is>
       </c>
       <c r="C13" s="4" t="b">
@@ -1710,6 +2025,27 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
+          <t>(12, 14) -&gt; (13, 14) -&gt; (13, 13) -&gt; (13, 12) -&gt; (13, 11) -&gt; (14, 11) -&gt; (14, 10) -&gt; (14, 9) -&gt; (14, 8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>((22, 13))</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
           <t>(14, 8) -&gt; (15, 8) -&gt; (16, 8) -&gt; (17, 8) -&gt; (18, 8) -&gt; (19, 8) -&gt; (19, 9) -&gt; (19, 10) -&gt; (20, 10) -&gt; (21, 10) -&gt; (22, 10) -&gt; (22, 11) -&gt; (22, 12) -&gt; (22, 13)</t>
         </is>
       </c>
@@ -1721,7 +2057,7 @@
         </is>
       </c>
       <c r="D15" s="3">
-        <f>SUM(D3:D12) / COUNTIF(C3:C12, True)</f>
+        <f>SUM(D3:D14) / COUNTIF(C3:C14, True)</f>
         <v/>
       </c>
     </row>
@@ -1991,7 +2327,7 @@
         </is>
       </c>
       <c r="D15" s="3">
-        <f>SUM(D3:D11) / COUNTIF(C3:C11, True)</f>
+        <f>SUM(D3:D12) / COUNTIF(C3:C12, True)</f>
         <v/>
       </c>
     </row>
@@ -2261,7 +2597,7 @@
         </is>
       </c>
       <c r="D15" s="3">
-        <f>SUM(D3:D11) / COUNTIF(C3:C11, True)</f>
+        <f>SUM(D3:D12) / COUNTIF(C3:C12, True)</f>
         <v/>
       </c>
     </row>
